--- a/data/move-only-output.xlsx
+++ b/data/move-only-output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-DATA\GoogleDriveYork\Writings\ECMFA-2019\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673AA3F6-B06E-4892-9411-469BD536A3A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92773946-69A1-4C63-9305-94D8EBE9B051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10814" windowHeight="4211" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1544,7 +1541,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -1735,7 +1732,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -1926,7 +1923,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -2178,7 +2175,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -5946,7 +5943,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -6137,7 +6134,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -6328,7 +6325,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -6580,7 +6577,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -6904,7 +6901,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -7095,7 +7092,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -7347,7 +7344,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -8428,7 +8425,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -8621,7 +8618,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -8865,7 +8862,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -10782,7 +10779,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -10975,7 +10972,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -11227,7 +11224,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -13152,7 +13149,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.11093799999999999</c:v>
@@ -13402,7 +13399,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -23162,19 +23159,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -25861,13 +25845,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ33" sqref="AQ33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
@@ -25960,7 +25946,7 @@
         <f>output!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <f>output!D2/1000000</f>
         <v>0.11093799999999999</v>
       </c>
@@ -26050,7 +26036,7 @@
         <f>output!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <f>output!D3/1000000</f>
         <v>0.22340199999999999</v>
       </c>
@@ -26140,7 +26126,7 @@
         <f>output!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <f>output!D4/1000000</f>
         <v>0.33608399999999999</v>
       </c>
@@ -26230,7 +26216,7 @@
         <f>output!A5</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <f>output!D5/1000000</f>
         <v>0.44902900000000001</v>
       </c>
@@ -26320,7 +26306,7 @@
         <f>output!A6</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <f>output!D6/1000000</f>
         <v>0.562052</v>
       </c>
@@ -26410,7 +26396,7 @@
         <f>output!A7</f>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <f>output!D7/1000000</f>
         <v>0.67520500000000006</v>
       </c>
@@ -26500,7 +26486,7 @@
         <f>output!A8</f>
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <f>output!D8/1000000</f>
         <v>0.78847299999999998</v>
       </c>
@@ -26590,7 +26576,7 @@
         <f>output!A9</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <f>output!D9/1000000</f>
         <v>0.90192000000000005</v>
       </c>
@@ -26680,7 +26666,7 @@
         <f>output!A10</f>
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <f>output!D10/1000000</f>
         <v>1.014799</v>
       </c>
@@ -26770,7 +26756,7 @@
         <f>output!A11</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <f>output!D11/1000000</f>
         <v>1.1278319999999999</v>
       </c>
@@ -26860,7 +26846,7 @@
         <f>output!A12</f>
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <f>output!D12/1000000</f>
         <v>1.2409779999999999</v>
       </c>
@@ -26950,7 +26936,7 @@
         <f>output!A13</f>
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <f>output!D13/1000000</f>
         <v>1.3547119999999999</v>
       </c>
@@ -27040,7 +27026,7 @@
         <f>output!A14</f>
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <f>output!D14/1000000</f>
         <v>1.467592</v>
       </c>
@@ -27130,7 +27116,7 @@
         <f>output!A15</f>
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <f>output!D15/1000000</f>
         <v>1.580052</v>
       </c>
@@ -27220,7 +27206,7 @@
         <f>output!A16</f>
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <f>output!D16/1000000</f>
         <v>1.692502</v>
       </c>
@@ -27310,7 +27296,7 @@
         <f>output!A17</f>
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <f>output!D17/1000000</f>
         <v>1.804834</v>
       </c>
@@ -27400,7 +27386,7 @@
         <f>output!A18</f>
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <f>output!D18/1000000</f>
         <v>1.9180250000000001</v>
       </c>
@@ -27490,7 +27476,7 @@
         <f>output!A19</f>
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <f>output!D19/1000000</f>
         <v>2.0305629999999999</v>
       </c>
@@ -27580,7 +27566,7 @@
         <f>output!A20</f>
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <f>output!D20/1000000</f>
         <v>2.1427580000000002</v>
       </c>
@@ -27670,7 +27656,7 @@
         <f>output!A21</f>
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <f>output!D21/1000000</f>
         <v>2.2553429999999999</v>
       </c>
@@ -27760,7 +27746,7 @@
         <f>output!A22</f>
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <f>output!D22/1000000</f>
         <v>2.3681619999999999</v>
       </c>
@@ -27850,7 +27836,7 @@
         <f>output!A23</f>
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <f>output!D23/1000000</f>
         <v>2.4806520000000001</v>
       </c>
@@ -28023,6 +28009,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
     <mergeCell ref="S32:W32"/>
     <mergeCell ref="S33:W33"/>
     <mergeCell ref="S34:W34"/>
@@ -28030,11 +28021,6 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
